--- a/Data/EC/NIT-9001969475.xlsx
+++ b/Data/EC/NIT-9001969475.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B305F6-53E3-4BD2-9B76-E24D5C5D038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65FC85B0-5DDF-4C64-8A06-0626DD302896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EBD59254-E09F-4375-A840-C2F14B894353}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3978F60B-41CC-488D-80C4-8D90BB826B12}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,16 +65,46 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73166941</t>
+  </si>
+  <si>
+    <t>ROBIN MANUEL DIAZ BRAVO</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>92070317</t>
   </si>
   <si>
     <t>ANSELMO JOSE BARRETO CONTRERAS</t>
   </si>
   <si>
+    <t>1804</t>
+  </si>
+  <si>
     <t>1803</t>
   </si>
   <si>
-    <t>1804</t>
+    <t>92401020</t>
+  </si>
+  <si>
+    <t>JEIMER OROZCO ALVAREZ</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>73130697</t>
+  </si>
+  <si>
+    <t>MARVIN GARCES MORILLO</t>
   </si>
   <si>
     <t>7920470</t>
@@ -83,45 +113,45 @@
     <t>OMAR STALIN FAJARDO TORRES</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
     <t>1909</t>
   </si>
   <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
     <t>1143406445</t>
   </si>
   <si>
@@ -137,46 +167,31 @@
     <t>JORGE LUIS RODRIGUEZ BELLO</t>
   </si>
   <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
     <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>92401020</t>
-  </si>
-  <si>
-    <t>JEIMER OROZCO ALVAREZ</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>73130697</t>
-  </si>
-  <si>
-    <t>MARVIN GARCES MORILLO</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -590,7 +605,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE720529-0B40-03D9-8925-41F54CA56DBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D78D845-4A06-263E-A575-C93B321F338A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,8 +956,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE799F4-06A4-4E05-8CD2-6E3774203615}">
-  <dimension ref="B2:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792C456B-7D8B-431A-A4AB-5315F2768CA7}">
+  <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -966,7 +981,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1011,7 +1026,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1043,12 +1058,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1287696</v>
+        <v>1435250</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1059,17 +1074,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1096,13 +1111,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1119,10 +1134,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>60000</v>
+        <v>40888</v>
       </c>
       <c r="G16" s="18">
-        <v>1664000</v>
+        <v>1500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1142,10 +1157,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>60000</v>
+        <v>53333</v>
       </c>
       <c r="G17" s="18">
-        <v>1664000</v>
+        <v>1500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1156,16 +1171,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>60000</v>
+        <v>53333</v>
       </c>
       <c r="G18" s="18">
         <v>1500000</v>
@@ -1179,10 +1194,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
@@ -1191,7 +1206,7 @@
         <v>60000</v>
       </c>
       <c r="G19" s="18">
-        <v>1500000</v>
+        <v>1664000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1202,10 +1217,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
@@ -1214,7 +1229,7 @@
         <v>60000</v>
       </c>
       <c r="G20" s="18">
-        <v>1500000</v>
+        <v>1664000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1225,19 +1240,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>60000</v>
+        <v>11200</v>
       </c>
       <c r="G21" s="18">
-        <v>1500000</v>
+        <v>1200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1248,19 +1263,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>60000</v>
+        <v>11200</v>
       </c>
       <c r="G22" s="18">
-        <v>1500000</v>
+        <v>1200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1271,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F23" s="18">
         <v>60000</v>
@@ -1294,13 +1309,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F24" s="18">
         <v>60000</v>
@@ -1317,13 +1332,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F25" s="18">
         <v>60000</v>
@@ -1340,13 +1355,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
         <v>60000</v>
@@ -1363,13 +1378,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F27" s="18">
         <v>60000</v>
@@ -1386,13 +1401,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F28" s="18">
         <v>60000</v>
@@ -1409,13 +1424,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F29" s="18">
         <v>60000</v>
@@ -1432,13 +1447,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F30" s="18">
         <v>60000</v>
@@ -1455,16 +1470,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F31" s="18">
-        <v>14000</v>
+        <v>60000</v>
       </c>
       <c r="G31" s="18">
         <v>1500000</v>
@@ -1478,19 +1493,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F32" s="18">
-        <v>24227</v>
+        <v>60000</v>
       </c>
       <c r="G32" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1501,19 +1516,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1524,19 +1539,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F34" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G34" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1547,19 +1562,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F35" s="18">
-        <v>11200</v>
+        <v>60000</v>
       </c>
       <c r="G35" s="18">
-        <v>1200000</v>
+        <v>1500000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1570,19 +1585,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F36" s="18">
-        <v>11200</v>
+        <v>14000</v>
       </c>
       <c r="G36" s="18">
-        <v>1200000</v>
+        <v>1982000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1593,13 +1608,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F37" s="18">
         <v>36341</v>
@@ -1616,13 +1631,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
@@ -1639,13 +1654,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F39" s="18">
         <v>36341</v>
@@ -1662,13 +1677,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
@@ -1685,13 +1700,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F41" s="18">
         <v>36341</v>
@@ -1708,13 +1723,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F42" s="18">
         <v>36341</v>
@@ -1727,56 +1742,125 @@
       <c r="J42" s="20"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="24">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="18">
         <v>36341</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="18">
         <v>908526</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="H48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="H49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G44" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G45" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="24">
+        <v>24227</v>
+      </c>
+      <c r="G46" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="26"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="H51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="32"/>
+      <c r="H52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H51:J51"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9001969475.xlsx
+++ b/Data/EC/NIT-9001969475.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65FC85B0-5DDF-4C64-8A06-0626DD302896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA6A112-A4DA-4ADC-BB3D-A87439630F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3978F60B-41CC-488D-80C4-8D90BB826B12}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9312A4B7-0939-48CF-AD42-0E2DCAB7860E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,31 +65,85 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73166941</t>
-  </si>
-  <si>
-    <t>ROBIN MANUEL DIAZ BRAVO</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
     <t>92070317</t>
   </si>
   <si>
     <t>ANSELMO JOSE BARRETO CONTRERAS</t>
   </si>
   <si>
+    <t>1803</t>
+  </si>
+  <si>
     <t>1804</t>
   </si>
   <si>
-    <t>1803</t>
+    <t>7920470</t>
+  </si>
+  <si>
+    <t>OMAR STALIN FAJARDO TORRES</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>1143406445</t>
+  </si>
+  <si>
+    <t>GLEIMIS BLANCO JULIO</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>1193287741</t>
+  </si>
+  <si>
+    <t>JORGE LUIS RODRIGUEZ BELLO</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
   </si>
   <si>
     <t>92401020</t>
@@ -107,91 +161,22 @@
     <t>MARVIN GARCES MORILLO</t>
   </si>
   <si>
-    <t>7920470</t>
-  </si>
-  <si>
-    <t>OMAR STALIN FAJARDO TORRES</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1143406445</t>
-  </si>
-  <si>
-    <t>GLEIMIS BLANCO JULIO</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>1193287741</t>
-  </si>
-  <si>
-    <t>JORGE LUIS RODRIGUEZ BELLO</t>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
   </si>
   <si>
     <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -290,7 +275,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -303,9 +290,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -505,23 +490,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,10 +534,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,7 +590,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D78D845-4A06-263E-A575-C93B321F338A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BB69D0-7C06-C685-4A4D-35CBD4B98890}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,8 +941,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792C456B-7D8B-431A-A4AB-5315F2768CA7}">
-  <dimension ref="B2:J52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAED2B4-0E1A-4DE7-8CAD-D145CC0F2BFA}">
+  <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -981,7 +966,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1026,7 +1011,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1058,12 +1043,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1435250</v>
+        <v>1287696</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1074,17 +1059,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F13" s="5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1111,13 +1096,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1134,10 +1119,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40888</v>
+        <v>60000</v>
       </c>
       <c r="G16" s="18">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1157,10 +1142,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>53333</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="18">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1171,16 +1156,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>53333</v>
+        <v>60000</v>
       </c>
       <c r="G18" s="18">
         <v>1500000</v>
@@ -1194,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
@@ -1206,7 +1191,7 @@
         <v>60000</v>
       </c>
       <c r="G19" s="18">
-        <v>1664000</v>
+        <v>1500000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1217,10 +1202,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
@@ -1229,7 +1214,7 @@
         <v>60000</v>
       </c>
       <c r="G20" s="18">
-        <v>1664000</v>
+        <v>1500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1240,19 +1225,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="18">
-        <v>11200</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>1200000</v>
+        <v>1500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1263,19 +1248,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>11200</v>
+        <v>60000</v>
       </c>
       <c r="G22" s="18">
-        <v>1200000</v>
+        <v>1500000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1286,13 +1271,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>60000</v>
@@ -1309,13 +1294,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>60000</v>
@@ -1332,13 +1317,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>60000</v>
@@ -1355,13 +1340,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F26" s="18">
         <v>60000</v>
@@ -1378,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F27" s="18">
         <v>60000</v>
@@ -1401,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>60000</v>
@@ -1424,13 +1409,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>60000</v>
@@ -1447,13 +1432,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>60000</v>
@@ -1470,16 +1455,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
-        <v>60000</v>
+        <v>14000</v>
       </c>
       <c r="G31" s="18">
         <v>1500000</v>
@@ -1493,19 +1478,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="18">
-        <v>60000</v>
+        <v>24227</v>
       </c>
       <c r="G32" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1516,19 +1501,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G33" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1539,19 +1524,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G34" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1562,19 +1547,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F35" s="18">
-        <v>60000</v>
+        <v>11200</v>
       </c>
       <c r="G35" s="18">
-        <v>1500000</v>
+        <v>1200000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1585,19 +1570,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F36" s="18">
-        <v>14000</v>
+        <v>11200</v>
       </c>
       <c r="G36" s="18">
-        <v>1982000</v>
+        <v>1200000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1608,13 +1593,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F37" s="18">
         <v>36341</v>
@@ -1631,13 +1616,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
@@ -1654,13 +1639,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F39" s="18">
         <v>36341</v>
@@ -1677,13 +1662,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
@@ -1700,13 +1685,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F41" s="18">
         <v>36341</v>
@@ -1723,13 +1708,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F42" s="18">
         <v>36341</v>
@@ -1742,125 +1727,56 @@
       <c r="J42" s="20"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="18">
+      <c r="B43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="24">
         <v>36341</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="24">
         <v>908526</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G44" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G45" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="24">
-        <v>24227</v>
-      </c>
-      <c r="G46" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="26"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="H51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="H52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="H48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="H49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9001969475.xlsx
+++ b/Data/EC/NIT-9001969475.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA6A112-A4DA-4ADC-BB3D-A87439630F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2C2D1E3-0FC4-4819-AF72-18D4615AF6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9312A4B7-0939-48CF-AD42-0E2DCAB7860E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{84566AD9-B337-41C2-9F6D-DC9DBFDA0794}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -275,9 +275,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -290,7 +288,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -484,29 +484,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,19 +525,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,7 +596,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BB69D0-7C06-C685-4A4D-35CBD4B98890}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1AFC27-AB47-AF19-F47C-72468016BE4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,7 +947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAED2B4-0E1A-4DE7-8CAD-D145CC0F2BFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CBD574-A70E-4A0D-8F43-08698087CE34}">
   <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -964,49 +970,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1014,7 +1020,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9001969475</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1287696</v>
       </c>
@@ -1115,18 +1121,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>60000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1800000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1138,18 +1144,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>60000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1800000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1161,18 +1167,18 @@
       <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>60000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1500000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1184,18 +1190,18 @@
       <c r="D19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>60000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1500000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1207,18 +1213,18 @@
       <c r="D20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>60000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1500000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1230,18 +1236,18 @@
       <c r="D21" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>60000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1500000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1253,18 +1259,18 @@
       <c r="D22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>60000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1500000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1276,18 +1282,18 @@
       <c r="D23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>60000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1500000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1299,18 +1305,18 @@
       <c r="D24" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>60000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1500000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1322,18 +1328,18 @@
       <c r="D25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>60000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1500000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1345,18 +1351,18 @@
       <c r="D26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>60000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1500000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1368,18 +1374,18 @@
       <c r="D27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>60000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1500000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1391,18 +1397,18 @@
       <c r="D28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>60000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1500000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1414,18 +1420,18 @@
       <c r="D29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>60000</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1500000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1437,18 +1443,18 @@
       <c r="D30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>60000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1500000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1460,18 +1466,18 @@
       <c r="D31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>14000</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>1500000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1483,18 +1489,18 @@
       <c r="D32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>24227</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>908526</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1506,18 +1512,18 @@
       <c r="D33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>36341</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>908526</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1529,18 +1535,18 @@
       <c r="D34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>36341</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>908526</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1552,18 +1558,18 @@
       <c r="D35" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>11200</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>1200000</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1575,18 +1581,18 @@
       <c r="D36" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>11200</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>1200000</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1598,18 +1604,18 @@
       <c r="D37" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>36341</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>908526</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1621,18 +1627,18 @@
       <c r="D38" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>36341</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>908526</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1644,18 +1650,18 @@
       <c r="D39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>36341</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>908526</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1667,18 +1673,18 @@
       <c r="D40" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>36341</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>908526</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1690,18 +1696,18 @@
       <c r="D41" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>36341</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>908526</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1713,47 +1719,47 @@
       <c r="D42" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>36341</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>908526</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22" t="s">
+      <c r="B43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="26">
         <v>36341</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="26">
         <v>908526</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="32"/>
+      <c r="C48" s="34"/>
       <c r="H48" s="1" t="s">
         <v>56</v>
       </c>
@@ -1761,10 +1767,10 @@
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="32"/>
+      <c r="C49" s="34"/>
       <c r="H49" s="1" t="s">
         <v>57</v>
       </c>
